--- a/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.493848785681816</v>
+        <v>8.493848785681815</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>8.272373323005318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.418036961177236</v>
+        <v>8.418036961177235</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.228625282266576</v>
+        <v>8.19377872483113</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.92690105273461</v>
+        <v>7.920944918295847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.214501609456374</v>
+        <v>8.198769271241206</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.732633988583085</v>
+        <v>8.731239174330542</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.608148873629768</v>
+        <v>8.590149458526698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.622352159764313</v>
+        <v>8.625957735078714</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>8.828577377826154</v>
+        <v>8.828577377826155</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>8.599830605825536</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8.731276203047369</v>
+        <v>8.731276203047367</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.748831735998548</v>
+        <v>8.750779908323041</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.511813501476027</v>
+        <v>8.520213393645333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.667038046009765</v>
+        <v>8.678762666855864</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.909800844536782</v>
+        <v>8.914667774545199</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.674659369300148</v>
+        <v>8.683512030722271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.787533838107274</v>
+        <v>8.793016576652652</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>8.798903303334606</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>8.773963421351425</v>
+        <v>8.773963421351423</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>8.786496394657211</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.67088261821991</v>
+        <v>8.663733017114176</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.663906146700437</v>
+        <v>8.66186322914019</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.697460246218361</v>
+        <v>8.702867817116884</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.912343598340367</v>
+        <v>8.910312360060811</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.872719414717929</v>
+        <v>8.870191480255254</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.8633973293321</v>
+        <v>8.863089306022218</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>8.793001806250855</v>
+        <v>8.793001806250857</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>8.637257890256445</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8.724505820805359</v>
+        <v>8.72450582080536</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.726773112531097</v>
+        <v>8.729509228580129</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.573107635451018</v>
+        <v>8.573038769554373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.677833699008344</v>
+        <v>8.679598335612317</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.851927843499466</v>
+        <v>8.85098192089584</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.6954995316369</v>
+        <v>8.699188330412126</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.764959451437239</v>
+        <v>8.768521811191235</v>
       </c>
     </row>
     <row r="16">
